--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Adam9-Itgb1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Adam9-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.23103074181342</v>
+        <v>10.36733066666667</v>
       </c>
       <c r="H2">
-        <v>9.23103074181342</v>
+        <v>31.101992</v>
       </c>
       <c r="I2">
-        <v>0.1084244385164053</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="J2">
-        <v>0.1084244385164053</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N2">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q2">
-        <v>816.4343698489992</v>
+        <v>1025.813406091403</v>
       </c>
       <c r="R2">
-        <v>816.4343698489992</v>
+        <v>9232.320654822623</v>
       </c>
       <c r="S2">
-        <v>0.02114974784338069</v>
+        <v>0.02453263244239953</v>
       </c>
       <c r="T2">
-        <v>0.02114974784338069</v>
+        <v>0.02453263244239954</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.23103074181342</v>
+        <v>10.36733066666667</v>
       </c>
       <c r="H3">
-        <v>9.23103074181342</v>
+        <v>31.101992</v>
       </c>
       <c r="I3">
-        <v>0.1084244385164053</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="J3">
-        <v>0.1084244385164053</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N3">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P3">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q3">
-        <v>1503.157633982485</v>
+        <v>1689.939545884927</v>
       </c>
       <c r="R3">
-        <v>1503.157633982485</v>
+        <v>15209.45591296434</v>
       </c>
       <c r="S3">
-        <v>0.03893932703183743</v>
+        <v>0.04041540643053013</v>
       </c>
       <c r="T3">
-        <v>0.03893932703183743</v>
+        <v>0.04041540643053015</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.23103074181342</v>
+        <v>10.36733066666667</v>
       </c>
       <c r="H4">
-        <v>9.23103074181342</v>
+        <v>31.101992</v>
       </c>
       <c r="I4">
-        <v>0.1084244385164053</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="J4">
-        <v>0.1084244385164053</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N4">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q4">
-        <v>570.6672731411111</v>
+        <v>677.9830621259379</v>
       </c>
       <c r="R4">
-        <v>570.6672731411111</v>
+        <v>6101.84755913344</v>
       </c>
       <c r="S4">
-        <v>0.01478314653955152</v>
+        <v>0.01621416640350101</v>
       </c>
       <c r="T4">
-        <v>0.01478314653955152</v>
+        <v>0.01621416640350102</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.23103074181342</v>
+        <v>10.36733066666667</v>
       </c>
       <c r="H5">
-        <v>9.23103074181342</v>
+        <v>31.101992</v>
       </c>
       <c r="I5">
-        <v>0.1084244385164053</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="J5">
-        <v>0.1084244385164053</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N5">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q5">
-        <v>1295.201409930005</v>
+        <v>1495.723789248098</v>
       </c>
       <c r="R5">
-        <v>1295.201409930005</v>
+        <v>13461.51410323288</v>
       </c>
       <c r="S5">
-        <v>0.03355221710163568</v>
+        <v>0.03577067889645722</v>
       </c>
       <c r="T5">
-        <v>0.03355221710163568</v>
+        <v>0.03577067889645724</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>37.8563825880878</v>
+        <v>37.91490933333333</v>
       </c>
       <c r="H6">
-        <v>37.8563825880878</v>
+        <v>113.744728</v>
       </c>
       <c r="I6">
-        <v>0.4446477474918807</v>
+        <v>0.4276413904453658</v>
       </c>
       <c r="J6">
-        <v>0.4446477474918807</v>
+        <v>0.4276413904453659</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N6">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q6">
-        <v>3348.190763038929</v>
+        <v>3751.556069290357</v>
       </c>
       <c r="R6">
-        <v>3348.190763038929</v>
+        <v>33764.00462361322</v>
       </c>
       <c r="S6">
-        <v>0.0867349452509046</v>
+        <v>0.08971957822780967</v>
       </c>
       <c r="T6">
-        <v>0.0867349452509046</v>
+        <v>0.08971957822780971</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>37.8563825880878</v>
+        <v>37.91490933333333</v>
       </c>
       <c r="H7">
-        <v>37.8563825880878</v>
+        <v>113.744728</v>
       </c>
       <c r="I7">
-        <v>0.4446477474918807</v>
+        <v>0.4276413904453658</v>
       </c>
       <c r="J7">
-        <v>0.4446477474918807</v>
+        <v>0.4276413904453659</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N7">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P7">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q7">
-        <v>6164.437328162022</v>
+        <v>6180.366646069633</v>
       </c>
       <c r="R7">
-        <v>6164.437328162022</v>
+        <v>55623.2998146267</v>
       </c>
       <c r="S7">
-        <v>0.1596898659607673</v>
+        <v>0.1478053049287036</v>
       </c>
       <c r="T7">
-        <v>0.1596898659607673</v>
+        <v>0.1478053049287037</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>37.8563825880878</v>
+        <v>37.91490933333333</v>
       </c>
       <c r="H8">
-        <v>37.8563825880878</v>
+        <v>113.744728</v>
       </c>
       <c r="I8">
-        <v>0.4446477474918807</v>
+        <v>0.4276413904453658</v>
       </c>
       <c r="J8">
-        <v>0.4446477474918807</v>
+        <v>0.4276413904453659</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N8">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q8">
-        <v>2340.30188250535</v>
+        <v>2479.487455019663</v>
       </c>
       <c r="R8">
-        <v>2340.30188250535</v>
+        <v>22315.38709517696</v>
       </c>
       <c r="S8">
-        <v>0.06062556467524977</v>
+        <v>0.05929767930340157</v>
       </c>
       <c r="T8">
-        <v>0.06062556467524977</v>
+        <v>0.05929767930340159</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>37.8563825880878</v>
+        <v>37.91490933333333</v>
       </c>
       <c r="H9">
-        <v>37.8563825880878</v>
+        <v>113.744728</v>
       </c>
       <c r="I9">
-        <v>0.4446477474918807</v>
+        <v>0.4276413904453658</v>
       </c>
       <c r="J9">
-        <v>0.4446477474918807</v>
+        <v>0.4276413904453659</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N9">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q9">
-        <v>5311.610531296834</v>
+        <v>5470.090004883103</v>
       </c>
       <c r="R9">
-        <v>5311.610531296834</v>
+        <v>49230.81004394792</v>
       </c>
       <c r="S9">
-        <v>0.1375973716049591</v>
+        <v>0.1308188279854508</v>
       </c>
       <c r="T9">
-        <v>0.1375973716049591</v>
+        <v>0.1308188279854509</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>24.9010641635131</v>
+        <v>26.72147866666667</v>
       </c>
       <c r="H10">
-        <v>24.9010641635131</v>
+        <v>80.16443599999999</v>
       </c>
       <c r="I10">
-        <v>0.2924791365020958</v>
+        <v>0.3013909433702152</v>
       </c>
       <c r="J10">
-        <v>0.2924791365020958</v>
+        <v>0.3013909433702153</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N10">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q10">
-        <v>2202.363441042284</v>
+        <v>2644.002774502555</v>
       </c>
       <c r="R10">
-        <v>2202.363441042284</v>
+        <v>23796.02497052299</v>
       </c>
       <c r="S10">
-        <v>0.05705226673166573</v>
+        <v>0.06323211205701104</v>
       </c>
       <c r="T10">
-        <v>0.05705226673166573</v>
+        <v>0.06323211205701107</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>24.9010641635131</v>
+        <v>26.72147866666667</v>
       </c>
       <c r="H11">
-        <v>24.9010641635131</v>
+        <v>80.16443599999999</v>
       </c>
       <c r="I11">
-        <v>0.2924791365020958</v>
+        <v>0.3013909433702152</v>
       </c>
       <c r="J11">
-        <v>0.2924791365020958</v>
+        <v>0.3013909433702153</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N11">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P11">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q11">
-        <v>4054.826133567757</v>
+        <v>4355.767648900473</v>
       </c>
       <c r="R11">
-        <v>4054.826133567757</v>
+        <v>39201.90884010425</v>
       </c>
       <c r="S11">
-        <v>0.1050403479333795</v>
+        <v>0.1041694777046506</v>
       </c>
       <c r="T11">
-        <v>0.1050403479333795</v>
+        <v>0.1041694777046506</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>24.9010641635131</v>
+        <v>26.72147866666667</v>
       </c>
       <c r="H12">
-        <v>24.9010641635131</v>
+        <v>80.16443599999999</v>
       </c>
       <c r="I12">
-        <v>0.2924791365020958</v>
+        <v>0.3013909433702152</v>
       </c>
       <c r="J12">
-        <v>0.2924791365020958</v>
+        <v>0.3013909433702153</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N12">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q12">
-        <v>1539.397146641101</v>
+        <v>1747.480669176392</v>
       </c>
       <c r="R12">
-        <v>1539.397146641101</v>
+        <v>15727.32602258752</v>
       </c>
       <c r="S12">
-        <v>0.03987811229493026</v>
+        <v>0.04179151949324683</v>
       </c>
       <c r="T12">
-        <v>0.03987811229493026</v>
+        <v>0.04179151949324685</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>24.9010641635131</v>
+        <v>26.72147866666667</v>
       </c>
       <c r="H13">
-        <v>24.9010641635131</v>
+        <v>80.16443599999999</v>
       </c>
       <c r="I13">
-        <v>0.2924791365020958</v>
+        <v>0.3013909433702152</v>
       </c>
       <c r="J13">
-        <v>0.2924791365020958</v>
+        <v>0.3013909433702153</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N13">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O13">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P13">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q13">
-        <v>3493.856137565397</v>
+        <v>3855.182458308671</v>
       </c>
       <c r="R13">
-        <v>3493.856137565397</v>
+        <v>34696.64212477804</v>
       </c>
       <c r="S13">
-        <v>0.0905084095421203</v>
+        <v>0.0921978341153067</v>
       </c>
       <c r="T13">
-        <v>0.0905084095421203</v>
+        <v>0.09219783411530673</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.1494385347762</v>
+        <v>13.65680433333333</v>
       </c>
       <c r="H14">
-        <v>13.1494385347762</v>
+        <v>40.970413</v>
       </c>
       <c r="I14">
-        <v>0.1544486774896183</v>
+        <v>0.154034782011531</v>
       </c>
       <c r="J14">
-        <v>0.1544486774896183</v>
+        <v>0.154034782011531</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N14">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O14">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P14">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q14">
-        <v>1162.99618799657</v>
+        <v>1351.296049092337</v>
       </c>
       <c r="R14">
-        <v>1162.99618799657</v>
+        <v>12161.66444183104</v>
       </c>
       <c r="S14">
-        <v>0.03012743831875877</v>
+        <v>0.03231664657177931</v>
       </c>
       <c r="T14">
-        <v>0.03012743831875877</v>
+        <v>0.03231664657177932</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.1494385347762</v>
+        <v>13.65680433333333</v>
       </c>
       <c r="H15">
-        <v>13.1494385347762</v>
+        <v>40.970413</v>
       </c>
       <c r="I15">
-        <v>0.1544486774896183</v>
+        <v>0.154034782011531</v>
       </c>
       <c r="J15">
-        <v>0.1544486774896183</v>
+        <v>0.154034782011531</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N15">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P15">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q15">
-        <v>2141.221221006288</v>
+        <v>2226.144265612888</v>
       </c>
       <c r="R15">
-        <v>2141.221221006288</v>
+        <v>20035.29839051599</v>
       </c>
       <c r="S15">
-        <v>0.05546837636141467</v>
+        <v>0.0532389016440386</v>
       </c>
       <c r="T15">
-        <v>0.05546837636141467</v>
+        <v>0.05323890164403862</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.1494385347762</v>
+        <v>13.65680433333333</v>
       </c>
       <c r="H16">
-        <v>13.1494385347762</v>
+        <v>40.970413</v>
       </c>
       <c r="I16">
-        <v>0.1544486774896183</v>
+        <v>0.154034782011531</v>
       </c>
       <c r="J16">
-        <v>0.1544486774896183</v>
+        <v>0.154034782011531</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N16">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O16">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P16">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q16">
-        <v>812.9053452272701</v>
+        <v>893.1018329084625</v>
       </c>
       <c r="R16">
-        <v>812.9053452272701</v>
+        <v>8037.916496176162</v>
       </c>
       <c r="S16">
-        <v>0.02105832839358896</v>
+        <v>0.02135879573251003</v>
       </c>
       <c r="T16">
-        <v>0.02105832839358896</v>
+        <v>0.02135879573251004</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.1494385347762</v>
+        <v>13.65680433333333</v>
       </c>
       <c r="H17">
-        <v>13.1494385347762</v>
+        <v>40.970413</v>
       </c>
       <c r="I17">
-        <v>0.1544486774896183</v>
+        <v>0.154034782011531</v>
       </c>
       <c r="J17">
-        <v>0.1544486774896183</v>
+        <v>0.154034782011531</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N17">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O17">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P17">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q17">
-        <v>1844.991291480015</v>
+        <v>1970.305354699452</v>
       </c>
       <c r="R17">
-        <v>1844.991291480015</v>
+        <v>17732.74819229507</v>
       </c>
       <c r="S17">
-        <v>0.04779453441585588</v>
+        <v>0.04712043806320305</v>
       </c>
       <c r="T17">
-        <v>0.04779453441585588</v>
+        <v>0.04712043806320307</v>
       </c>
     </row>
   </sheetData>
